--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H2">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I2">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J2">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>87.79123549710339</v>
+        <v>197.5574777348946</v>
       </c>
       <c r="R2">
-        <v>87.79123549710339</v>
+        <v>1778.017299614052</v>
       </c>
       <c r="S2">
-        <v>0.09854947714040675</v>
+        <v>0.1577864957817239</v>
       </c>
       <c r="T2">
-        <v>0.09854947714040675</v>
+        <v>0.1577864957817239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H3">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I3">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J3">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>435.8660128941245</v>
+        <v>576.810366464101</v>
       </c>
       <c r="R3">
-        <v>435.8660128941245</v>
+        <v>5191.293298176909</v>
       </c>
       <c r="S3">
-        <v>0.4892785416535914</v>
+        <v>0.4606906683485504</v>
       </c>
       <c r="T3">
-        <v>0.4892785416535914</v>
+        <v>0.4606906683485504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H4">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I4">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J4">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>38.7758739064661</v>
+        <v>15.93743320555633</v>
       </c>
       <c r="R4">
-        <v>38.7758739064661</v>
+        <v>143.436898850007</v>
       </c>
       <c r="S4">
-        <v>0.04352760360993732</v>
+        <v>0.01272901317678569</v>
       </c>
       <c r="T4">
-        <v>0.04352760360993732</v>
+        <v>0.01272901317678569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.53798082127388</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H5">
-        <v>3.53798082127388</v>
+        <v>238.837389</v>
       </c>
       <c r="I5">
-        <v>0.03693655415930457</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J5">
-        <v>0.03693655415930457</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>5.13610017806473</v>
+        <v>52.13249645885167</v>
       </c>
       <c r="R5">
-        <v>5.13610017806473</v>
+        <v>469.192468129665</v>
       </c>
       <c r="S5">
-        <v>0.005765495658228087</v>
+        <v>0.04163752254234418</v>
       </c>
       <c r="T5">
-        <v>0.005765495658228087</v>
+        <v>0.04163752254234417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H6">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I6">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J6">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>25.49971524790466</v>
+        <v>9.46702738737422</v>
       </c>
       <c r="R6">
-        <v>25.49971524790466</v>
+        <v>85.20324648636799</v>
       </c>
       <c r="S6">
-        <v>0.02862453855081213</v>
+        <v>0.007561187225359791</v>
       </c>
       <c r="T6">
-        <v>0.02862453855081213</v>
+        <v>0.007561187225359791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H7">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I7">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J7">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>2.268526826714804</v>
+        <v>27.64096605831734</v>
       </c>
       <c r="R7">
-        <v>2.268526826714804</v>
+        <v>248.768694524856</v>
       </c>
       <c r="S7">
-        <v>0.002546519950264356</v>
+        <v>0.02207646718498831</v>
       </c>
       <c r="T7">
-        <v>0.002546519950264356</v>
+        <v>0.02207646718498831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.4149752606439</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H8">
-        <v>27.4149752606439</v>
+        <v>11.445176</v>
       </c>
       <c r="I8">
-        <v>0.2862126081639322</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J8">
-        <v>0.2862126081639322</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>39.79842357289401</v>
+        <v>0.7637276926764445</v>
       </c>
       <c r="R8">
-        <v>39.79842357289401</v>
+        <v>6.873549234087999</v>
       </c>
       <c r="S8">
-        <v>0.04467546004920447</v>
+        <v>0.0006099790184636099</v>
       </c>
       <c r="T8">
-        <v>0.04467546004920447</v>
+        <v>0.0006099790184636099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.4149752606439</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H9">
-        <v>27.4149752606439</v>
+        <v>11.445176</v>
       </c>
       <c r="I9">
-        <v>0.2862126081639322</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J9">
-        <v>0.2862126081639322</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>197.5912527482449</v>
+        <v>2.498208508262223</v>
       </c>
       <c r="R9">
-        <v>197.5912527482449</v>
+        <v>22.48387657436</v>
       </c>
       <c r="S9">
-        <v>0.2218047682732518</v>
+        <v>0.001995285477271302</v>
       </c>
       <c r="T9">
-        <v>0.2218047682732518</v>
+        <v>0.001995285477271302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H10">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I10">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J10">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.641192516667742</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N10">
-        <v>0.641192516667742</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q10">
-        <v>17.57827698175615</v>
+        <v>75.56914124934355</v>
       </c>
       <c r="R10">
-        <v>17.57827698175615</v>
+        <v>680.122271244092</v>
       </c>
       <c r="S10">
-        <v>0.01973237984147601</v>
+        <v>0.06035605497539685</v>
       </c>
       <c r="T10">
-        <v>0.01973237984147601</v>
+        <v>0.06035605497539685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.35777518392155</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H11">
-        <v>4.35777518392155</v>
+        <v>91.359419</v>
       </c>
       <c r="I11">
-        <v>0.04549521527282793</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J11">
-        <v>0.04549521527282793</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45170379307354</v>
+        <v>7.245227</v>
       </c>
       <c r="N11">
-        <v>1.45170379307354</v>
+        <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q11">
-        <v>6.326198763860657</v>
+        <v>220.6399097477043</v>
       </c>
       <c r="R11">
-        <v>6.326198763860657</v>
+        <v>1985.759187729339</v>
       </c>
       <c r="S11">
-        <v>0.007101433040947754</v>
+        <v>0.1762221232415384</v>
       </c>
       <c r="T11">
-        <v>0.007101433040947754</v>
+        <v>0.1762221232415384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.35777518392155</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H12">
-        <v>4.35777518392155</v>
+        <v>91.359419</v>
       </c>
       <c r="I12">
-        <v>0.04549521527282793</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J12">
-        <v>0.04549521527282793</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.20742042878663</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N12">
-        <v>7.20742042878663</v>
+        <v>0.600563</v>
       </c>
       <c r="O12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q12">
-        <v>31.4083178846556</v>
+        <v>6.096342972544111</v>
       </c>
       <c r="R12">
-        <v>31.4083178846556</v>
+        <v>54.86708675289699</v>
       </c>
       <c r="S12">
-        <v>0.03525720179088516</v>
+        <v>0.004869066996350748</v>
       </c>
       <c r="T12">
-        <v>0.03525720179088516</v>
+        <v>0.004869066996350748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.35777518392155</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H13">
-        <v>4.35777518392155</v>
+        <v>91.359419</v>
       </c>
       <c r="I13">
-        <v>0.04549521527282793</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J13">
-        <v>0.04549521527282793</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.641192516667742</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N13">
-        <v>0.641192516667742</v>
+        <v>1.964485</v>
       </c>
       <c r="O13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q13">
-        <v>2.794172837250891</v>
+        <v>19.94157869269056</v>
       </c>
       <c r="R13">
-        <v>2.794172837250891</v>
+        <v>179.474208234215</v>
       </c>
       <c r="S13">
-        <v>0.00313658044099502</v>
+        <v>0.01592707022964468</v>
       </c>
       <c r="T13">
-        <v>0.00313658044099502</v>
+        <v>0.01592707022964468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.441711333333334</v>
+      </c>
+      <c r="H14">
+        <v>13.325134</v>
+      </c>
+      <c r="I14">
+        <v>0.03753906580158222</v>
+      </c>
+      <c r="J14">
+        <v>0.03753906580158223</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>11.02205929541244</v>
+      </c>
+      <c r="R14">
+        <v>99.19853365871199</v>
+      </c>
+      <c r="S14">
+        <v>0.008803170259418241</v>
+      </c>
+      <c r="T14">
+        <v>0.008803170259418241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.441711333333334</v>
+      </c>
+      <c r="H15">
+        <v>13.325134</v>
+      </c>
+      <c r="I15">
+        <v>0.03753906580158222</v>
+      </c>
+      <c r="J15">
+        <v>0.03753906580158223</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>32.18120687847267</v>
+      </c>
+      <c r="R15">
+        <v>289.630861906254</v>
+      </c>
+      <c r="S15">
+        <v>0.02570269635753719</v>
+      </c>
+      <c r="T15">
+        <v>0.02570269635753719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.441711333333334</v>
+      </c>
+      <c r="H16">
+        <v>13.325134</v>
+      </c>
+      <c r="I16">
+        <v>0.03753906580158222</v>
+      </c>
+      <c r="J16">
+        <v>0.03753906580158223</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>0.889175827826889</v>
+      </c>
+      <c r="R16">
+        <v>8.002582450442</v>
+      </c>
+      <c r="S16">
+        <v>0.0007101727538498384</v>
+      </c>
+      <c r="T16">
+        <v>0.0007101727538498384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.441711333333334</v>
+      </c>
+      <c r="H17">
+        <v>13.325134</v>
+      </c>
+      <c r="I17">
+        <v>0.03753906580158222</v>
+      </c>
+      <c r="J17">
+        <v>0.03753906580158223</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>2.908558429554445</v>
+      </c>
+      <c r="R17">
+        <v>26.17702586599</v>
+      </c>
+      <c r="S17">
+        <v>0.002323026430776954</v>
+      </c>
+      <c r="T17">
+        <v>0.002323026430776954</v>
       </c>
     </row>
   </sheetData>
